--- a/PastaDocsAdministrativos/Orçamento.xlsx
+++ b/PastaDocsAdministrativos/Orçamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Downloads\Gitexercicio\3SIPG-ExemploGit-2024\PastaDocsAdministrativos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5999ACF-CAB1-45C4-BA5C-EC12237F2E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731C55C5-4C3A-43FD-9000-4C4A71B2000B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>PREVISÃO ORÇAMENTO - PROJETO EXEMPLO</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>R$30.000</t>
+  </si>
+  <si>
+    <t>TRANSPORTE</t>
+  </si>
+  <si>
+    <t>R$48.000</t>
   </si>
 </sst>
 </file>
@@ -360,13 +366,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -392,6 +401,14 @@
       </c>
       <c r="B7" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
